--- a/2021-01-09/202101-09.xlsx
+++ b/2021-01-09/202101-09.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>塞尔塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初盘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排名差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,7 +150,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不玩，看情况</t>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门兴（1）：（0）莱比锡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒沃库森（4）：（3）门兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜仁（2）：（1）沃尔夫斯堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏林联合（1）：（1）拜仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜仁（5）：（0）法兰克福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯图加特（1）：（3）拜仁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜仁（1）：（1）云达不莱梅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜仁（4）：（3）柏林赫塔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不玩，看情况（压输：主客前提）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94/0.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92/0.98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初盘（澳门）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初盘（Crown）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83/0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.05/1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.03/1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83/0.76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.08/1.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8/0.78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-&gt;0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1-&gt;-0.75(主建弱)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -265,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -275,23 +363,41 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -299,23 +405,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -611,15 +708,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q27"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
@@ -628,15 +725,23 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="21.125" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="19.125" customWidth="1"/>
+    <col min="17" max="17" width="11.125" customWidth="1"/>
+    <col min="18" max="18" width="17.625" style="18" customWidth="1"/>
+    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="34.625" customWidth="1"/>
+    <col min="24" max="24" width="24.875" customWidth="1"/>
+    <col min="25" max="25" width="26.125" customWidth="1"/>
+    <col min="26" max="27" width="23.125" customWidth="1"/>
+    <col min="28" max="28" width="26.375" customWidth="1"/>
+    <col min="29" max="29" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="36.75" customHeight="1">
+    <row r="1" spans="1:29" ht="36.75" customHeight="1">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -664,14 +769,26 @@
       </c>
       <c r="K1" s="1"/>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="21" customHeight="1">
-      <c r="B2" s="4">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="21" customHeight="1">
+      <c r="B2" s="11">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -699,8 +816,8 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.25" customHeight="1">
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:29" ht="20.25" customHeight="1">
+      <c r="B3" s="11"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -726,9 +843,9 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.75" customHeight="1"/>
-    <row r="5" spans="1:17" ht="18.75" customHeight="1">
-      <c r="B5" s="4">
+    <row r="4" spans="1:29" ht="39.75" customHeight="1"/>
+    <row r="5" spans="1:29" ht="18.75" customHeight="1">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -756,8 +873,8 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1">
-      <c r="B6" s="4"/>
+    <row r="6" spans="1:29" ht="19.5" customHeight="1">
+      <c r="B6" s="11"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -783,232 +900,318 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="45.75" customHeight="1"/>
-    <row r="8" spans="1:17">
-      <c r="A8" s="15" t="s">
+    <row r="7" spans="1:29" ht="45.75" customHeight="1"/>
+    <row r="8" spans="1:29">
+      <c r="A8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="12">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>12</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>23</v>
+      </c>
+      <c r="I8" s="4">
+        <v>38</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" s="15"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="4">
+        <v>9</v>
+      </c>
+      <c r="H9" s="4">
+        <v>-1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>21</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="38.25" customHeight="1"/>
+    <row r="11" spans="1:29">
+      <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B11" s="16">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7</v>
+      </c>
+      <c r="E11" s="6">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>6</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>3</v>
+      </c>
+      <c r="I11" s="6">
+        <v>21</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.89</v>
+      </c>
+      <c r="R11" s="19"/>
+      <c r="T11" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="X11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" s="10"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>23</v>
+      </c>
+      <c r="I12" s="6">
+        <v>33</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="K12" s="8">
+        <v>-1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>-0.75</v>
+      </c>
+      <c r="M12" s="8">
+        <v>-1.25</v>
+      </c>
+      <c r="N12" s="6">
+        <v>-1</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.97</v>
+      </c>
+      <c r="R12" s="19"/>
+      <c r="T12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="10"/>
+      <c r="V12">
+        <v>2</v>
+      </c>
+      <c r="X12" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="27" customHeight="1"/>
+    <row r="14" spans="1:29">
+      <c r="A14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="12">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4">
+        <v>17</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4">
+        <v>3</v>
+      </c>
+      <c r="G14" s="4">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-17</v>
+      </c>
+      <c r="I14" s="4">
+        <v>6</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29">
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4">
         <v>8</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>12</v>
-      </c>
-      <c r="F8" s="7">
+      <c r="E15" s="4">
+        <v>4</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4">
         <v>2</v>
       </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
-        <v>23</v>
-      </c>
-      <c r="I8" s="7">
-        <v>38</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="9"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="7">
-        <v>9</v>
-      </c>
-      <c r="E9" s="7">
-        <v>6</v>
-      </c>
-      <c r="F9" s="7">
-        <v>3</v>
-      </c>
-      <c r="G9" s="7">
-        <v>9</v>
-      </c>
-      <c r="H9" s="7">
-        <v>-1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>21</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="38.25" customHeight="1"/>
-    <row r="11" spans="1:17">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="10">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11">
-        <v>7</v>
-      </c>
-      <c r="E11" s="11">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11">
-        <v>6</v>
-      </c>
-      <c r="G11" s="11">
-        <v>3</v>
-      </c>
-      <c r="H11" s="11">
-        <v>3</v>
-      </c>
-      <c r="I11" s="11">
-        <v>21</v>
-      </c>
-      <c r="J11" s="12">
-        <v>0.19</v>
-      </c>
-      <c r="K11" s="13">
-        <v>1</v>
-      </c>
-      <c r="L11" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M11" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="N11" s="11">
-        <v>1</v>
-      </c>
-      <c r="O11" s="14">
-        <v>0.89</v>
-      </c>
-      <c r="P11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="11">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11">
-        <v>10</v>
-      </c>
-      <c r="F12" s="11">
-        <v>3</v>
-      </c>
-      <c r="G12" s="11">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
-        <v>23</v>
-      </c>
-      <c r="I12" s="11">
-        <v>33</v>
-      </c>
-      <c r="J12" s="12">
-        <v>0.6</v>
-      </c>
-      <c r="K12" s="13">
-        <v>-1</v>
-      </c>
-      <c r="L12" s="13">
-        <v>-0.75</v>
-      </c>
-      <c r="M12" s="13">
-        <v>-1.25</v>
-      </c>
-      <c r="N12" s="11">
-        <v>-1</v>
-      </c>
-      <c r="O12" s="14">
-        <v>0.97</v>
-      </c>
-      <c r="P12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17" ht="27" customHeight="1"/>
-    <row r="14" spans="1:17">
-      <c r="A14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="6">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7">
-        <v>17</v>
-      </c>
-      <c r="E14" s="7">
-        <v>1</v>
-      </c>
-      <c r="F14" s="7">
-        <v>3</v>
-      </c>
-      <c r="G14" s="7">
-        <v>10</v>
-      </c>
-      <c r="H14" s="7">
-        <v>-17</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0.28000000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="3"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="7">
-        <v>8</v>
-      </c>
-      <c r="E15" s="7">
-        <v>4</v>
-      </c>
-      <c r="F15" s="7">
-        <v>8</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="H15" s="4">
         <v>0</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="4">
         <v>20</v>
       </c>
-      <c r="J15" s="8">
+      <c r="J15" s="5">
         <v>0.47</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="23.25" customHeight="1"/>
+      <c r="N15">
+        <v>-0.5</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="23.25" customHeight="1"/>
     <row r="17" spans="1:10">
-      <c r="B17" s="4">
+      <c r="B17" s="11">
         <v>6</v>
       </c>
       <c r="C17" t="s">
@@ -1037,7 +1240,7 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" s="4"/>
+      <c r="B18" s="11"/>
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -1065,7 +1268,7 @@
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1"/>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B20" s="4">
+      <c r="B20" s="11">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -1094,7 +1297,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B21" s="4"/>
+      <c r="B21" s="11"/>
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -1122,68 +1325,68 @@
     </row>
     <row r="22" spans="1:10" ht="28.5" customHeight="1"/>
     <row r="23" spans="1:10">
-      <c r="A23" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="12">
         <v>11</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="4">
         <v>8</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F23" s="4">
         <v>4</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="4">
         <v>2</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="4">
         <v>15</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="4">
         <v>28</v>
       </c>
-      <c r="J23" s="8">
+      <c r="J23" s="5">
         <v>0.67</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>14</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="4">
         <v>3</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="7">
-        <v>6</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="G24" s="4">
+        <v>6</v>
+      </c>
+      <c r="H24" s="4">
         <v>-7</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="4">
         <v>14</v>
       </c>
-      <c r="J24" s="8">
+      <c r="J24" s="5">
         <v>0.13</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="27" customHeight="1"/>
     <row r="26" spans="1:10">
-      <c r="B26" s="4">
+      <c r="B26" s="11">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -1212,7 +1415,7 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="4"/>
+      <c r="B27" s="11"/>
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -1240,18 +1443,18 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B17:B18"/>
   </mergeCells>

--- a/2021-01-09/202101-09.xlsx
+++ b/2021-01-09/202101-09.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>塞尔塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>西甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>德甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,22 +186,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>即</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.94/0.88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.92/0.98</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>初盘（澳门）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,14 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.83/0.86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.05/1.02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.03/1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,6 +219,66 @@
   </si>
   <si>
     <t>-1-&gt;-0.75(主建弱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西甲（推迟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.94/0.88/0.86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.92/0.98/1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.83/0.86/0.88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.05/1.02/1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临场（澳门）（c）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.02/1.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.84/0.84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.88/0.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预测客胜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +389,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,6 +420,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,25 +444,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -710,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14:U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -725,9 +764,11 @@
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="21.125" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="11.125" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="14" max="14" width="9" style="11"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
+    <col min="18" max="18" width="17.625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="15.625" customWidth="1"/>
     <col min="21" max="21" width="34.625" customWidth="1"/>
     <col min="24" max="24" width="24.875" customWidth="1"/>
     <col min="25" max="25" width="26.125" customWidth="1"/>
@@ -769,26 +810,26 @@
       </c>
       <c r="K1" s="1"/>
       <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S1" t="s">
-        <v>48</v>
-      </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="B2" s="11">
+      <c r="B2" s="16">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -817,7 +858,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="20.25" customHeight="1">
-      <c r="B3" s="11"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -845,7 +886,7 @@
     </row>
     <row r="4" spans="1:29" ht="39.75" customHeight="1"/>
     <row r="5" spans="1:29" ht="18.75" customHeight="1">
-      <c r="B5" s="11">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -874,7 +915,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -902,10 +943,10 @@
     </row>
     <row r="7" spans="1:29" ht="45.75" customHeight="1"/>
     <row r="8" spans="1:29">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="17">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -932,22 +973,22 @@
       <c r="J8" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="11">
         <v>-1</v>
       </c>
       <c r="Q8" t="s">
-        <v>51</v>
-      </c>
-      <c r="R8" s="18" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="S8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -972,25 +1013,25 @@
       <c r="J9" s="5">
         <v>0.16</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="11">
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>52</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="S9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="38.25" customHeight="1"/>
     <row r="11" spans="1:29">
-      <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="18">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1026,7 +1067,7 @@
       <c r="M11" s="8">
         <v>1.25</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="20">
         <v>1</v>
       </c>
       <c r="O11" s="6">
@@ -1038,26 +1079,26 @@
       <c r="Q11" s="9">
         <v>0.89</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="12"/>
       <c r="T11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>42</v>
+        <v>30</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="V11">
         <v>3</v>
       </c>
-      <c r="X11" s="17" t="s">
+      <c r="X11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" t="s">
         <v>34</v>
       </c>
-      <c r="Y11" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1091,7 +1132,7 @@
       <c r="M12" s="8">
         <v>-1.25</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="20">
         <v>-1</v>
       </c>
       <c r="O12" s="6">
@@ -1103,39 +1144,39 @@
       <c r="Q12" s="9">
         <v>0.97</v>
       </c>
-      <c r="R12" s="19"/>
+      <c r="R12" s="12"/>
       <c r="T12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="U12" s="15"/>
       <c r="V12">
         <v>2</v>
       </c>
       <c r="X12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="Y12" s="17" t="s">
+      <c r="Z12" t="s">
         <v>37</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AB12" t="s">
         <v>39</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>40</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="27" customHeight="1"/>
     <row r="14" spans="1:29">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="17">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1162,19 +1203,25 @@
       <c r="J14" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="11">
         <v>0.5</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="T14" t="s">
+        <v>56</v>
+      </c>
+      <c r="U14" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4" t="s">
         <v>17</v>
       </c>
@@ -1199,19 +1246,23 @@
       <c r="J15" s="5">
         <v>0.47</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="11">
         <v>-0.5</v>
       </c>
       <c r="Q15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:29" ht="23.25" customHeight="1"/>
-    <row r="17" spans="1:10">
-      <c r="B17" s="11">
+    <row r="17" spans="1:19">
+      <c r="B17" s="16">
         <v>6</v>
       </c>
       <c r="C17" t="s">
@@ -1239,8 +1290,8 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="11"/>
+    <row r="18" spans="1:19">
+      <c r="B18" s="16"/>
       <c r="C18" t="s">
         <v>19</v>
       </c>
@@ -1266,9 +1317,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="27" customHeight="1"/>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B20" s="11">
+    <row r="19" spans="1:19" ht="27" customHeight="1"/>
+    <row r="20" spans="1:19" ht="16.5" customHeight="1">
+      <c r="B20" s="16">
         <v>5</v>
       </c>
       <c r="C20" t="s">
@@ -1296,8 +1347,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B21" s="11"/>
+    <row r="21" spans="1:19" ht="16.5" customHeight="1">
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
         <v>21</v>
       </c>
@@ -1323,12 +1374,12 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.5" customHeight="1"/>
-    <row r="23" spans="1:10">
-      <c r="A23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="12">
+    <row r="22" spans="1:19" ht="28.5" customHeight="1"/>
+    <row r="23" spans="1:19">
+      <c r="A23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="17">
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1355,10 +1406,19 @@
       <c r="J23" s="5">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
+      <c r="N23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="4" t="s">
         <v>23</v>
       </c>
@@ -1383,10 +1443,19 @@
       <c r="J24" s="5">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="27" customHeight="1"/>
-    <row r="26" spans="1:10">
-      <c r="B26" s="11">
+      <c r="N24" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>62</v>
+      </c>
+      <c r="S24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="27" customHeight="1"/>
+    <row r="26" spans="1:19">
+      <c r="B26" s="16">
         <v>1</v>
       </c>
       <c r="C26" t="s">
@@ -1414,8 +1483,8 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="11"/>
+    <row r="27" spans="1:19">
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
         <v>25</v>
       </c>
@@ -1442,13 +1511,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
+  <mergeCells count="15">
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B24"/>
@@ -1457,6 +1520,13 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021-01-09/202101-09.xlsx
+++ b/2021-01-09/202101-09.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F322C2F2-213F-844B-B5A4-5A7E322FDA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美因茨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>法兰克福</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,10 +103,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>勒沃库森</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>云达不莱梅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,13 +236,21 @@
   </si>
   <si>
     <t>-1-&gt;-0.75(主建弱)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美因茨(主)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勒沃库森（主）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -384,6 +385,21 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -393,26 +409,11 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,11 +421,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -466,7 +475,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,9 +507,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -532,6 +559,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -707,41 +752,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="11.125" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="18" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="34.625" customWidth="1"/>
-    <col min="24" max="24" width="24.875" customWidth="1"/>
-    <col min="25" max="25" width="26.125" customWidth="1"/>
-    <col min="26" max="27" width="23.125" customWidth="1"/>
-    <col min="28" max="28" width="26.375" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="21" max="21" width="34.6640625" customWidth="1"/>
+    <col min="24" max="24" width="24.83203125" customWidth="1"/>
+    <col min="25" max="25" width="26.1640625" customWidth="1"/>
+    <col min="26" max="27" width="23.1640625" customWidth="1"/>
+    <col min="28" max="28" width="26.33203125" customWidth="1"/>
     <col min="29" max="29" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="36.75" customHeight="1">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -769,26 +814,26 @@
       </c>
       <c r="K1" s="1"/>
       <c r="O1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="Q1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="S1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="V1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="B2" s="11">
+      <c r="B2" s="16">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -817,7 +862,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="20.25" customHeight="1">
-      <c r="B3" s="11"/>
+      <c r="B3" s="16"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -845,7 +890,7 @@
     </row>
     <row r="4" spans="1:29" ht="39.75" customHeight="1"/>
     <row r="5" spans="1:29" ht="18.75" customHeight="1">
-      <c r="B5" s="11">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -874,7 +919,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -902,10 +947,10 @@
     </row>
     <row r="7" spans="1:29" ht="45.75" customHeight="1"/>
     <row r="8" spans="1:29">
-      <c r="A8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="12">
+      <c r="A8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="17">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -936,18 +981,18 @@
         <v>-1</v>
       </c>
       <c r="Q8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="S8" t="s">
         <v>51</v>
       </c>
-      <c r="R8" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="S8" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="15"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -976,21 +1021,21 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S9" t="s">
         <v>52</v>
-      </c>
-      <c r="R9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="S9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="38.25" customHeight="1"/>
     <row r="11" spans="1:29">
-      <c r="A11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="18">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1038,26 +1083,26 @@
       <c r="Q11" s="9">
         <v>0.89</v>
       </c>
-      <c r="R11" s="19"/>
+      <c r="R11" s="12"/>
       <c r="T11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" s="10" t="s">
-        <v>42</v>
+        <v>29</v>
+      </c>
+      <c r="U11" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="V11">
         <v>3</v>
       </c>
-      <c r="X11" s="17" t="s">
-        <v>34</v>
+      <c r="X11" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="Y11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="10"/>
-      <c r="B12" s="16"/>
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1103,43 +1148,43 @@
       <c r="Q12" s="9">
         <v>0.97</v>
       </c>
-      <c r="R12" s="19"/>
+      <c r="R12" s="12"/>
       <c r="T12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="U12" s="15"/>
       <c r="V12">
         <v>2</v>
       </c>
       <c r="X12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z12" t="s">
         <v>36</v>
       </c>
-      <c r="Y12" s="17" t="s">
+      <c r="AA12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AB12" t="s">
         <v>38</v>
       </c>
-      <c r="AA12" s="17" t="s">
+      <c r="AC12" t="s">
         <v>39</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="27" customHeight="1"/>
     <row r="14" spans="1:29">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="12">
+      <c r="A14" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="17">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D14" s="4">
         <v>17</v>
@@ -1166,17 +1211,17 @@
         <v>0.5</v>
       </c>
       <c r="Q14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="10"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4">
         <v>8</v>
@@ -1203,19 +1248,19 @@
         <v>-0.5</v>
       </c>
       <c r="Q15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:29" ht="23.25" customHeight="1"/>
     <row r="17" spans="1:10">
-      <c r="B17" s="11">
+      <c r="B17" s="16">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>9</v>
@@ -1240,9 +1285,9 @@
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="B18" s="11"/>
+      <c r="B18" s="16"/>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18">
         <v>15</v>
@@ -1268,11 +1313,11 @@
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1"/>
     <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B20" s="11">
+      <c r="B20" s="16">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20">
         <v>18</v>
@@ -1297,9 +1342,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B21" s="11"/>
+      <c r="B21" s="16"/>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
         <v>13</v>
@@ -1325,14 +1370,14 @@
     </row>
     <row r="22" spans="1:10" ht="28.5" customHeight="1"/>
     <row r="23" spans="1:10">
-      <c r="A23" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="12">
+      <c r="A23" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="17">
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D23" s="4">
         <v>3</v>
@@ -1357,10 +1402,10 @@
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="10"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
       <c r="C24" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
         <v>14</v>
@@ -1386,11 +1431,11 @@
     </row>
     <row r="25" spans="1:10" ht="27" customHeight="1"/>
     <row r="26" spans="1:10">
-      <c r="B26" s="11">
+      <c r="B26" s="16">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>5</v>
@@ -1415,9 +1460,9 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="B27" s="11"/>
+      <c r="B27" s="16"/>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -1443,12 +1488,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="U11:U12"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B23:B24"/>
@@ -1457,6 +1496,12 @@
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1465,12 +1510,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1479,12 +1524,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021-01-09/202101-09.xlsx
+++ b/2021-01-09/202101-09.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F322C2F2-213F-844B-B5A4-5A7E322FDA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>塞尔塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不玩，看情况（压输：主客前提）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>临场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,14 +239,518 @@
   </si>
   <si>
     <t>勒沃库森（主）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不玩，看情况（已输：主客前提）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>比赛结果：0:2(客赢) 盘口：-0.5 初盘：0.94/0.92  临场盘：0.82/1.04 滚一：0.86/0.96 滚二：0.88/0.94 结束盘：1.32/0.5平
+总结：             盘口：-0.5  初盘展示</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客强</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;临场盘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主强</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;开场一分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主强</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;开场两分钟</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主强</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;结束盘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">客赢
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水位变化:                    开场前</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水位逐渐由</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客转向主（可能是庄家吸筹码）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;临场盘到开场前几分钟水位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>偏向客0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;结束</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客赢</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                       </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>比赛结果：1:1(客赢)    盘口: 1.25 初盘：1.02/0.84 临场盘：1/0.86 开场前盘口发生变化：1 临场盘：0.88/0.98 滚一：0.82/1 滚二：0.86/0.96 滚三：0.88/0.94 结束盘：1.32/0.5 盘口变0.25 
+总结                            初盘偏向</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客赢</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;临场盘偏向</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客赢</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;临场盘口</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>由1.25变为1显示主变弱，客可能赢</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;临场盘出现</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>变盘</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;开场前几分钟主渐弱，水位在偏向客。
+水位变化：                       开场前</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水位展示客赢</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临开场盘口变化水位发生不确定性</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，开场后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随主胜但是水位逐渐偏向客0.6</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;结束</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>客赢</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">案例分析： 赛维利亚：皇家社会
+分析：     盘口：0.25  初盘：0.85/1.01 临场盘：0.84/1.02 开场盘口发生变化：0.5 临场盘：1.02/0.84  滚一：1.02/0.8 滚二：1.04/0.78 滚三：1.02/0.8 
+           初盘偏向主赢-&gt;未变盘前主赢-&gt;变盘后出现不确定性-&gt;开赛前几分钟 客赢，水位向客偏斜，预测结果：客赢（预测失败）
+比赛结果：  3:2 主赢
+赛后总结：未考虑到赛场变盘前：赛场开始前盘口由 0.25-&gt;0.5显示主强
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>盘口变化+水位变化很重要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2020-01-10案例分析：AC米兰：都灵
+分析：   盘口1.25 初始盘：0.96/0.90 盘口变化：1 初始盘：1.00/0.86 盘口变化：0.75 初始盘：0.8/1.06 临场盘0.86/1.00 滚一：0.86/0.96 滚二：0.90/0.91 滚三：0.82/1.00
+                 盘口 1.25-&gt;1-&gt;0.75 主渐弱，初始盘水位逐渐意向于 主赢，临场盘水位贴向于 主赢， 开场水位偏向于主赢，有向客倾斜0.04，但右拉回来了，预测</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主赢</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">。
+比赛结果： 2:0 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主赢</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +795,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -354,7 +870,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -394,26 +910,56 @@
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,7 +979,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -475,7 +1021,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -507,27 +1053,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -559,24 +1087,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -752,32 +1262,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.375" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21.125" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="11.83203125" customWidth="1"/>
-    <col min="21" max="21" width="34.6640625" customWidth="1"/>
-    <col min="24" max="24" width="24.83203125" customWidth="1"/>
-    <col min="25" max="25" width="26.1640625" customWidth="1"/>
-    <col min="26" max="27" width="23.1640625" customWidth="1"/>
-    <col min="28" max="28" width="26.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.125" customWidth="1"/>
+    <col min="18" max="18" width="17.625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="34.625" customWidth="1"/>
+    <col min="24" max="24" width="24.875" customWidth="1"/>
+    <col min="25" max="25" width="26.125" customWidth="1"/>
+    <col min="26" max="27" width="23.125" customWidth="1"/>
+    <col min="28" max="28" width="26.375" customWidth="1"/>
     <col min="29" max="29" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -814,16 +1324,16 @@
       </c>
       <c r="K1" s="1"/>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" t="s">
         <v>45</v>
-      </c>
-      <c r="S1" t="s">
-        <v>46</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -833,7 +1343,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="B2" s="16">
+      <c r="B2" s="14">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -862,7 +1372,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="20.25" customHeight="1">
-      <c r="B3" s="16"/>
+      <c r="B3" s="14"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -890,7 +1400,7 @@
     </row>
     <row r="4" spans="1:29" ht="39.75" customHeight="1"/>
     <row r="5" spans="1:29" ht="18.75" customHeight="1">
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -919,7 +1429,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" customHeight="1">
-      <c r="B6" s="16"/>
+      <c r="B6" s="14"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -947,10 +1457,10 @@
     </row>
     <row r="7" spans="1:29" ht="45.75" customHeight="1"/>
     <row r="8" spans="1:29">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -981,18 +1491,18 @@
         <v>-1</v>
       </c>
       <c r="Q8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1021,21 +1531,21 @@
         <v>1</v>
       </c>
       <c r="Q9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="38.25" customHeight="1"/>
     <row r="11" spans="1:29">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="18">
+      <c r="B11" s="19">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1087,8 +1597,8 @@
       <c r="T11" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="15" t="s">
-        <v>40</v>
+      <c r="U11" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V11">
         <v>3</v>
@@ -1101,8 +1611,8 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="15"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1152,7 +1662,7 @@
       <c r="T12" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="15"/>
+      <c r="U12" s="13"/>
       <c r="V12">
         <v>2</v>
       </c>
@@ -1177,14 +1687,14 @@
     </row>
     <row r="13" spans="1:29" ht="27" customHeight="1"/>
     <row r="14" spans="1:29">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="4">
         <v>17</v>
@@ -1211,15 +1721,18 @@
         <v>0.5</v>
       </c>
       <c r="Q14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S14" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1248,260 +1761,373 @@
         <v>-0.5</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" ht="23.25" customHeight="1"/>
-    <row r="17" spans="1:10">
-      <c r="B17" s="16">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="U15" s="13"/>
+    </row>
+    <row r="16" spans="1:29" s="23" customFormat="1" ht="27" customHeight="1">
+      <c r="B16" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="1:18" s="23" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>9</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>5</v>
-      </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>-1</v>
-      </c>
-      <c r="I17">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="B18" s="16"/>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18">
-        <v>15</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
       </c>
       <c r="F18">
         <v>5</v>
       </c>
       <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>-1</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="14"/>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>-9</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>11</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J19" s="2">
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="27" customHeight="1"/>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B20" s="16">
+    <row r="20" spans="1:18" ht="27" customHeight="1"/>
+    <row r="21" spans="1:18" ht="16.5" customHeight="1">
+      <c r="B21" s="14">
         <v>5</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>0</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>10</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>-31</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J21" s="2">
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="B21" s="16"/>
-      <c r="C21" t="s">
+    <row r="22" spans="1:18" ht="16.5" customHeight="1">
+      <c r="B22" s="14"/>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>13</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>3</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>7</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>-4</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>15</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J22" s="2">
         <v>0.51</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="28.5" customHeight="1"/>
-    <row r="23" spans="1:10">
-      <c r="A23" s="19" t="s">
+    <row r="23" spans="1:18" s="20" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="R23" s="22"/>
+    </row>
+    <row r="24" spans="1:18" s="20" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="R24" s="22"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B25" s="15">
         <v>11</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="4">
+      <c r="C25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E25" s="4">
         <v>8</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F25" s="4">
         <v>4</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G25" s="4">
         <v>2</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H25" s="4">
         <v>15</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I25" s="4">
         <v>28</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J25" s="5">
         <v>0.67</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="4" t="s">
+    <row r="26" spans="1:18">
+      <c r="A26" s="13"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D26" s="4">
         <v>14</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E26" s="4">
         <v>3</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F26" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G26" s="4">
         <v>6</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H26" s="4">
         <v>-7</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I26" s="4">
         <v>14</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J26" s="5">
         <v>0.13</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="27" customHeight="1"/>
-    <row r="26" spans="1:10">
-      <c r="B26" s="16">
+    <row r="27" spans="1:18" s="20" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B27" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="R27" s="22"/>
+    </row>
+    <row r="28" spans="1:18" s="20" customFormat="1" ht="27" customHeight="1">
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="R28" s="22"/>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" s="14">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D26">
+      <c r="D29">
         <v>5</v>
       </c>
-      <c r="E26">
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="F26">
+      <c r="F29">
         <v>6</v>
       </c>
-      <c r="G26">
+      <c r="G29">
         <v>2</v>
       </c>
-      <c r="H26">
+      <c r="H29">
         <v>11</v>
       </c>
-      <c r="I26">
+      <c r="I29">
         <v>24</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J29" s="2">
         <v>0.36</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="B27" s="16"/>
-      <c r="C27" t="s">
+    <row r="30" spans="1:18">
+      <c r="B30" s="14"/>
+      <c r="C30" t="s">
         <v>23</v>
       </c>
-      <c r="D27">
+      <c r="D30">
         <v>6</v>
       </c>
-      <c r="E27">
+      <c r="E30">
         <v>6</v>
       </c>
-      <c r="F27">
+      <c r="F30">
         <v>6</v>
       </c>
-      <c r="G27">
+      <c r="G30">
         <v>2</v>
       </c>
-      <c r="H27">
+      <c r="H30">
         <v>2</v>
       </c>
-      <c r="I27">
+      <c r="I30">
         <v>24</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J30" s="2">
         <v>0.36</v>
       </c>
     </row>
+    <row r="33" spans="1:1" s="29" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" s="29" customFormat="1"/>
+    <row r="35" spans="1:1" s="29" customFormat="1"/>
+    <row r="36" spans="1:1" s="29" customFormat="1"/>
+    <row r="37" spans="1:1" s="29" customFormat="1"/>
+    <row r="38" spans="1:1" s="29" customFormat="1"/>
+    <row r="39" spans="1:1" s="29" customFormat="1"/>
+    <row r="41" spans="1:1" s="28" customFormat="1">
+      <c r="A41" s="29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" s="28" customFormat="1"/>
+    <row r="43" spans="1:1" s="28" customFormat="1"/>
+    <row r="44" spans="1:1" s="28" customFormat="1"/>
+    <row r="45" spans="1:1" s="28" customFormat="1"/>
+    <row r="46" spans="1:1" s="28" customFormat="1"/>
+    <row r="47" spans="1:1" s="28" customFormat="1"/>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
+  <mergeCells count="20">
+    <mergeCell ref="A33:XFD39"/>
+    <mergeCell ref="A41:XFD47"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B11:B12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B16:J17"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="B23:J24"/>
+    <mergeCell ref="B27:O28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1510,12 +2136,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,12 +2150,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021-01-09/202101-09.xlsx
+++ b/2021-01-09/202101-09.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="76">
   <si>
     <t>塞尔塔</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,6 +743,58 @@
       </rPr>
       <t>主赢</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月10号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥格斯堡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯图加特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘口：-0.25  初盘：1.06/0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德甲22:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意甲19:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗马</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际米兰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘口：-0.25 初盘：0.8/1.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西甲21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>莱万特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃瓦尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘口：0.25 初盘：0.98/0.88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,7 +922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -911,6 +963,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -919,47 +998,32 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,10 +1327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -1343,7 +1407,7 @@
       </c>
     </row>
     <row r="2" spans="1:29" ht="21" customHeight="1">
-      <c r="B2" s="14">
+      <c r="B2" s="23">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -1372,7 +1436,7 @@
       </c>
     </row>
     <row r="3" spans="1:29" ht="20.25" customHeight="1">
-      <c r="B3" s="14"/>
+      <c r="B3" s="23"/>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -1400,7 +1464,7 @@
     </row>
     <row r="4" spans="1:29" ht="39.75" customHeight="1"/>
     <row r="5" spans="1:29" ht="18.75" customHeight="1">
-      <c r="B5" s="14">
+      <c r="B5" s="23">
         <v>2</v>
       </c>
       <c r="C5" t="s">
@@ -1429,7 +1493,7 @@
       </c>
     </row>
     <row r="6" spans="1:29" ht="19.5" customHeight="1">
-      <c r="B6" s="14"/>
+      <c r="B6" s="23"/>
       <c r="C6" t="s">
         <v>11</v>
       </c>
@@ -1457,10 +1521,10 @@
     </row>
     <row r="7" spans="1:29" ht="45.75" customHeight="1"/>
     <row r="8" spans="1:29">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="24">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1501,8 +1565,8 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="18"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1542,10 +1606,10 @@
     </row>
     <row r="10" spans="1:29" ht="38.25" customHeight="1"/>
     <row r="11" spans="1:29">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="25">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1597,7 +1661,7 @@
       <c r="T11" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="22" t="s">
         <v>57</v>
       </c>
       <c r="V11">
@@ -1611,8 +1675,8 @@
       </c>
     </row>
     <row r="12" spans="1:29">
-      <c r="A12" s="13"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1662,7 +1726,7 @@
       <c r="T12" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="13"/>
+      <c r="U12" s="22"/>
       <c r="V12">
         <v>2</v>
       </c>
@@ -1687,10 +1751,10 @@
     </row>
     <row r="13" spans="1:29" ht="27" customHeight="1"/>
     <row r="14" spans="1:29">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="24">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1726,13 +1790,13 @@
       <c r="S14" t="s">
         <v>46</v>
       </c>
-      <c r="U14" s="13" t="s">
+      <c r="U14" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="24"/>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1766,37 +1830,37 @@
       <c r="S15" t="s">
         <v>47</v>
       </c>
-      <c r="U15" s="13"/>
-    </row>
-    <row r="16" spans="1:29" s="23" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="24" t="s">
+      <c r="U15" s="22"/>
+    </row>
+    <row r="16" spans="1:29" s="15" customFormat="1" ht="27" customHeight="1">
+      <c r="B16" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="R16" s="25"/>
-    </row>
-    <row r="17" spans="1:18" s="23" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A17" s="26"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="R17" s="25"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="R16" s="16"/>
+    </row>
+    <row r="17" spans="1:18" s="15" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A17" s="17"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C18" t="s">
@@ -1825,7 +1889,7 @@
       </c>
     </row>
     <row r="19" spans="1:18">
-      <c r="B19" s="14"/>
+      <c r="B19" s="23"/>
       <c r="C19" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1917,7 @@
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1"/>
     <row r="21" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B21" s="14">
+      <c r="B21" s="23">
         <v>5</v>
       </c>
       <c r="C21" t="s">
@@ -1882,7 +1946,7 @@
       </c>
     </row>
     <row r="22" spans="1:18" ht="16.5" customHeight="1">
-      <c r="B22" s="14"/>
+      <c r="B22" s="23"/>
       <c r="C22" t="s">
         <v>20</v>
       </c>
@@ -1908,35 +1972,35 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="20" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="R23" s="22"/>
-    </row>
-    <row r="24" spans="1:18" s="20" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="R24" s="22"/>
+    <row r="23" spans="1:18" s="13" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" s="13" customFormat="1" ht="28.5" customHeight="1">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="R24" s="14"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="24">
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -1965,8 +2029,8 @@
       </c>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="13"/>
-      <c r="B26" s="15"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
@@ -1992,44 +2056,44 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="27" spans="1:18" s="20" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="24" t="s">
+    <row r="27" spans="1:18" s="13" customFormat="1" ht="16.5" customHeight="1">
+      <c r="B27" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="R27" s="22"/>
-    </row>
-    <row r="28" spans="1:18" s="20" customFormat="1" ht="27" customHeight="1">
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="R28" s="22"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="R27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" s="13" customFormat="1" ht="27" customHeight="1">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="R28" s="14"/>
     </row>
     <row r="29" spans="1:18">
-      <c r="B29" s="14">
+      <c r="B29" s="23">
         <v>1</v>
       </c>
       <c r="C29" t="s">
@@ -2058,7 +2122,7 @@
       </c>
     </row>
     <row r="30" spans="1:18">
-      <c r="B30" s="14"/>
+      <c r="B30" s="23"/>
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -2084,30 +2148,306 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="29" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="29" t="s">
+    <row r="33" spans="1:1" s="18" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="29" customFormat="1"/>
-    <row r="35" spans="1:1" s="29" customFormat="1"/>
-    <row r="36" spans="1:1" s="29" customFormat="1"/>
-    <row r="37" spans="1:1" s="29" customFormat="1"/>
-    <row r="38" spans="1:1" s="29" customFormat="1"/>
-    <row r="39" spans="1:1" s="29" customFormat="1"/>
-    <row r="41" spans="1:1" s="28" customFormat="1">
-      <c r="A41" s="29" t="s">
+    <row r="34" spans="1:1" s="18" customFormat="1"/>
+    <row r="35" spans="1:1" s="18" customFormat="1"/>
+    <row r="36" spans="1:1" s="18" customFormat="1"/>
+    <row r="37" spans="1:1" s="18" customFormat="1"/>
+    <row r="38" spans="1:1" s="18" customFormat="1"/>
+    <row r="39" spans="1:1" s="18" customFormat="1"/>
+    <row r="41" spans="1:1" s="19" customFormat="1">
+      <c r="A41" s="18" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="28" customFormat="1"/>
-    <row r="43" spans="1:1" s="28" customFormat="1"/>
-    <row r="44" spans="1:1" s="28" customFormat="1"/>
-    <row r="45" spans="1:1" s="28" customFormat="1"/>
-    <row r="46" spans="1:1" s="28" customFormat="1"/>
-    <row r="47" spans="1:1" s="28" customFormat="1"/>
+    <row r="42" spans="1:1" s="19" customFormat="1"/>
+    <row r="43" spans="1:1" s="19" customFormat="1"/>
+    <row r="44" spans="1:1" s="19" customFormat="1"/>
+    <row r="45" spans="1:1" s="19" customFormat="1"/>
+    <row r="46" spans="1:1" s="19" customFormat="1"/>
+    <row r="47" spans="1:1" s="19" customFormat="1"/>
+    <row r="49" spans="1:22" ht="36.75" customHeight="1">
+      <c r="A49" t="s">
+        <v>25</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="1"/>
+      <c r="O49" t="s">
+        <v>41</v>
+      </c>
+      <c r="P49" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>44</v>
+      </c>
+      <c r="S49" t="s">
+        <v>45</v>
+      </c>
+      <c r="T49" t="s">
+        <v>28</v>
+      </c>
+      <c r="V49" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
+      <c r="A50" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="1:22">
+      <c r="A51" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="23">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>3</v>
+      </c>
+      <c r="G51">
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <v>11</v>
+      </c>
+      <c r="I51">
+        <v>33</v>
+      </c>
+      <c r="J51" s="2">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
+      <c r="A52" s="22"/>
+      <c r="B52" s="23"/>
+      <c r="C52" t="s">
+        <v>70</v>
+      </c>
+      <c r="D52">
+        <v>2</v>
+      </c>
+      <c r="E52">
+        <v>11</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+      <c r="G52">
+        <v>2</v>
+      </c>
+      <c r="H52">
+        <v>20</v>
+      </c>
+      <c r="I52">
+        <v>36</v>
+      </c>
+      <c r="J52" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" s="28" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A53" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="28" customFormat="1"/>
+    <row r="55" spans="1:22" s="28" customFormat="1"/>
+    <row r="56" spans="1:22" s="28" customFormat="1"/>
+    <row r="60" spans="1:22">
+      <c r="A60" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="23">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60">
+        <v>12</v>
+      </c>
+      <c r="E60">
+        <v>4</v>
+      </c>
+      <c r="F60">
+        <v>7</v>
+      </c>
+      <c r="G60">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>-2</v>
+      </c>
+      <c r="I60">
+        <v>19</v>
+      </c>
+      <c r="J60" s="2">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="22"/>
+      <c r="B61" s="23"/>
+      <c r="C61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D61">
+        <v>13</v>
+      </c>
+      <c r="E61">
+        <v>4</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61">
+        <v>6</v>
+      </c>
+      <c r="H61">
+        <v>-2</v>
+      </c>
+      <c r="I61">
+        <v>18</v>
+      </c>
+      <c r="J61" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" s="28" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A62" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="28" customFormat="1"/>
+    <row r="64" spans="1:22" s="28" customFormat="1"/>
+    <row r="65" spans="1:18" s="28" customFormat="1"/>
+    <row r="70" spans="1:18" s="4" customFormat="1">
+      <c r="A70" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="24">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="4">
+        <v>10</v>
+      </c>
+      <c r="E70" s="4">
+        <v>5</v>
+      </c>
+      <c r="F70" s="4">
+        <v>4</v>
+      </c>
+      <c r="G70" s="4">
+        <v>5</v>
+      </c>
+      <c r="H70" s="4">
+        <v>-3</v>
+      </c>
+      <c r="I70" s="4">
+        <v>19</v>
+      </c>
+      <c r="J70" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R70" s="31"/>
+    </row>
+    <row r="71" spans="1:18" s="4" customFormat="1">
+      <c r="A71" s="30"/>
+      <c r="B71" s="24"/>
+      <c r="C71" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D71" s="4">
+        <v>11</v>
+      </c>
+      <c r="E71" s="4">
+        <v>4</v>
+      </c>
+      <c r="F71" s="4">
+        <v>6</v>
+      </c>
+      <c r="G71" s="4">
+        <v>4</v>
+      </c>
+      <c r="H71" s="4">
+        <v>5</v>
+      </c>
+      <c r="I71" s="4">
+        <v>18</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="R71" s="31"/>
+    </row>
+    <row r="72" spans="1:18" s="33" customFormat="1">
+      <c r="A72" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="33" customFormat="1"/>
+    <row r="74" spans="1:18" s="33" customFormat="1"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A72:XFD74"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A53:XFD56"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A62:XFD65"/>
+    <mergeCell ref="B16:J17"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="B23:J24"/>
+    <mergeCell ref="B27:O28"/>
+    <mergeCell ref="A50:B50"/>
     <mergeCell ref="A33:XFD39"/>
     <mergeCell ref="A41:XFD47"/>
     <mergeCell ref="A8:A9"/>
@@ -2124,10 +2464,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B16:J17"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="B23:J24"/>
-    <mergeCell ref="B27:O28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2021-01-09/202101-09.xlsx
+++ b/2021-01-09/202101-09.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11213"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8613B5-AE6D-A843-8FE6-D1B247FE1BAF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -758,10 +759,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盘口：-0.25  初盘：1.06/0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>德甲22:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -778,10 +775,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盘口：-0.25 初盘：0.8/1.06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>西甲21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -794,14 +787,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>盘口：0.25 初盘：0.98/0.88</t>
+    <t>盘口：0.25 初盘：0.98/0.88 临场盘：0.90/0.96 滚一：0.90/0.92 滚二：0.84/0.98 滚三：0.86/0.96。主赢 0.25盘口 主赢 十块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘口：-0.25 初盘：0.8/1.06 盘口发生变化：-0.25 -&gt;      0 -&gt;   -0.25 -&gt; 0.75-&gt;.    0.5-&gt;.   -0.5 
+                                       0.8/1.06 1.00/0.82 1.12/0.7 0.78/1.04 o.82/1.00 0.84/0.98. 预测主赢 0.5盘口2.24。十块
+学会了看亚博盘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘口：-0.25  初盘：1.06/0.8  盘口变化：-0.25 -&gt; -0.5 客胜增强 临场盘：0.98/0.88 盘口：-0.5  
+                                                            滚一：1.00/0.82 滚二：1.04/0.78 滚三：1.06/0.76 
+                            盘口变化：-0.5 -&gt; -0.25  胜但减弱 滚一：0.92/0.90 滚二：1.02/0.8 滚三：0.96/0.86 预测客胜 -0.5 2.13 十块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8">
     <font>
       <sz val="11"/>
@@ -977,6 +982,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -989,41 +1021,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,7 +1048,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1085,7 +1090,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1117,9 +1122,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1151,6 +1174,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1326,32 +1367,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD56"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="15.125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="21.125" customWidth="1"/>
+    <col min="9" max="9" width="21.1640625" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="11.125" customWidth="1"/>
-    <col min="18" max="18" width="17.625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
-    <col min="21" max="21" width="34.625" customWidth="1"/>
-    <col min="24" max="24" width="24.875" customWidth="1"/>
-    <col min="25" max="25" width="26.125" customWidth="1"/>
-    <col min="26" max="27" width="23.125" customWidth="1"/>
-    <col min="28" max="28" width="26.375" customWidth="1"/>
+    <col min="17" max="17" width="11.1640625" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="11.83203125" customWidth="1"/>
+    <col min="21" max="21" width="34.6640625" customWidth="1"/>
+    <col min="24" max="24" width="24.83203125" customWidth="1"/>
+    <col min="25" max="25" width="26.1640625" customWidth="1"/>
+    <col min="26" max="27" width="23.1640625" customWidth="1"/>
+    <col min="28" max="28" width="26.33203125" customWidth="1"/>
     <col min="29" max="29" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1521,10 +1562,10 @@
     </row>
     <row r="7" spans="1:29" ht="45.75" customHeight="1"/>
     <row r="8" spans="1:29">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="20">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1565,8 +1606,8 @@
       </c>
     </row>
     <row r="9" spans="1:29">
-      <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1609,7 +1650,7 @@
       <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="31">
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -1676,7 +1717,7 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" s="22"/>
-      <c r="B12" s="25"/>
+      <c r="B12" s="31"/>
       <c r="C12" s="6" t="s">
         <v>15</v>
       </c>
@@ -1754,7 +1795,7 @@
       <c r="A14" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="20">
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1796,7 +1837,7 @@
     </row>
     <row r="15" spans="1:29">
       <c r="A15" s="22"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1833,30 +1874,30 @@
       <c r="U15" s="22"/>
     </row>
     <row r="16" spans="1:29" s="15" customFormat="1" ht="27" customHeight="1">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
       <c r="R16" s="16"/>
     </row>
     <row r="17" spans="1:18" s="15" customFormat="1" ht="23.25" customHeight="1">
       <c r="A17" s="17"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
       <c r="R17" s="16"/>
     </row>
     <row r="18" spans="1:18">
@@ -1973,34 +2014,34 @@
       </c>
     </row>
     <row r="23" spans="1:18" s="13" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
       <c r="R23" s="14"/>
     </row>
     <row r="24" spans="1:18" s="13" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
       <c r="R24" s="14"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="20">
         <v>11</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -2030,7 +2071,7 @@
     </row>
     <row r="26" spans="1:18">
       <c r="A26" s="22"/>
-      <c r="B26" s="24"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="4" t="s">
         <v>21</v>
       </c>
@@ -2057,39 +2098,39 @@
       </c>
     </row>
     <row r="27" spans="1:18" s="13" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
       <c r="R27" s="14"/>
     </row>
     <row r="28" spans="1:18" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
       <c r="R28" s="14"/>
     </row>
     <row r="29" spans="1:18">
@@ -2148,28 +2189,28 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="33" spans="1:1" s="18" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="18" t="s">
+    <row r="33" spans="1:1" s="27" customFormat="1" ht="15" customHeight="1">
+      <c r="A33" s="27" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:1" s="18" customFormat="1"/>
-    <row r="35" spans="1:1" s="18" customFormat="1"/>
-    <row r="36" spans="1:1" s="18" customFormat="1"/>
-    <row r="37" spans="1:1" s="18" customFormat="1"/>
-    <row r="38" spans="1:1" s="18" customFormat="1"/>
-    <row r="39" spans="1:1" s="18" customFormat="1"/>
-    <row r="41" spans="1:1" s="19" customFormat="1">
-      <c r="A41" s="18" t="s">
+    <row r="34" spans="1:1" s="27" customFormat="1"/>
+    <row r="35" spans="1:1" s="27" customFormat="1"/>
+    <row r="36" spans="1:1" s="27" customFormat="1"/>
+    <row r="37" spans="1:1" s="27" customFormat="1"/>
+    <row r="38" spans="1:1" s="27" customFormat="1"/>
+    <row r="39" spans="1:1" s="27" customFormat="1"/>
+    <row r="41" spans="1:1" s="28" customFormat="1">
+      <c r="A41" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:1" s="19" customFormat="1"/>
-    <row r="43" spans="1:1" s="19" customFormat="1"/>
-    <row r="44" spans="1:1" s="19" customFormat="1"/>
-    <row r="45" spans="1:1" s="19" customFormat="1"/>
-    <row r="46" spans="1:1" s="19" customFormat="1"/>
-    <row r="47" spans="1:1" s="19" customFormat="1"/>
+    <row r="42" spans="1:1" s="28" customFormat="1"/>
+    <row r="43" spans="1:1" s="28" customFormat="1"/>
+    <row r="44" spans="1:1" s="28" customFormat="1"/>
+    <row r="45" spans="1:1" s="28" customFormat="1"/>
+    <row r="46" spans="1:1" s="28" customFormat="1"/>
+    <row r="47" spans="1:1" s="28" customFormat="1"/>
     <row r="49" spans="1:22" ht="36.75" customHeight="1">
       <c r="A49" t="s">
         <v>25</v>
@@ -2229,13 +2270,13 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="23">
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -2263,7 +2304,7 @@
       <c r="A52" s="22"/>
       <c r="B52" s="23"/>
       <c r="C52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D52">
         <v>2</v>
@@ -2287,23 +2328,23 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="53" spans="1:22" s="28" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A53" s="28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" s="28" customFormat="1"/>
-    <row r="55" spans="1:22" s="28" customFormat="1"/>
-    <row r="56" spans="1:22" s="28" customFormat="1"/>
+    <row r="53" spans="1:22" s="24" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A53" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" s="24" customFormat="1"/>
+    <row r="55" spans="1:22" s="24" customFormat="1"/>
+    <row r="56" spans="1:22" s="24" customFormat="1"/>
     <row r="60" spans="1:22">
       <c r="A60" s="22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B60" s="23">
         <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D60">
         <v>12</v>
@@ -2331,7 +2372,7 @@
       <c r="A61" s="22"/>
       <c r="B61" s="23"/>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D61">
         <v>13</v>
@@ -2355,19 +2396,19 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:22" s="28" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A62" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" s="28" customFormat="1"/>
-    <row r="64" spans="1:22" s="28" customFormat="1"/>
-    <row r="65" spans="1:18" s="28" customFormat="1"/>
+    <row r="62" spans="1:22" s="24" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A62" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" s="24" customFormat="1"/>
+    <row r="64" spans="1:22" s="24" customFormat="1"/>
+    <row r="65" spans="1:18" s="24" customFormat="1"/>
     <row r="70" spans="1:18" s="4" customFormat="1">
-      <c r="A70" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="24">
+      <c r="A70" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="20">
         <v>1</v>
       </c>
       <c r="C70" s="4" t="s">
@@ -2394,11 +2435,11 @@
       <c r="J70" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="R70" s="31"/>
+      <c r="R70" s="18"/>
     </row>
     <row r="71" spans="1:18" s="4" customFormat="1">
-      <c r="A71" s="30"/>
-      <c r="B71" s="24"/>
+      <c r="A71" s="19"/>
+      <c r="B71" s="20"/>
       <c r="C71" s="4" t="s">
         <v>65</v>
       </c>
@@ -2423,17 +2464,38 @@
       <c r="J71" s="5">
         <v>0.45</v>
       </c>
-      <c r="R71" s="31"/>
-    </row>
-    <row r="72" spans="1:18" s="33" customFormat="1">
-      <c r="A72" s="32" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="33" customFormat="1"/>
-    <row r="74" spans="1:18" s="33" customFormat="1"/>
+      <c r="R71" s="18"/>
+    </row>
+    <row r="72" spans="1:18" s="21" customFormat="1">
+      <c r="A72" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="21" customFormat="1"/>
+    <row r="74" spans="1:18" s="21" customFormat="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B16:J17"/>
+    <mergeCell ref="U14:U15"/>
+    <mergeCell ref="B23:J24"/>
+    <mergeCell ref="B27:O28"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A33:XFD39"/>
+    <mergeCell ref="A41:XFD47"/>
     <mergeCell ref="A70:A71"/>
     <mergeCell ref="B70:B71"/>
     <mergeCell ref="A72:XFD74"/>
@@ -2443,27 +2505,6 @@
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="B60:B61"/>
     <mergeCell ref="A62:XFD65"/>
-    <mergeCell ref="B16:J17"/>
-    <mergeCell ref="U14:U15"/>
-    <mergeCell ref="B23:J24"/>
-    <mergeCell ref="B27:O28"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A33:XFD39"/>
-    <mergeCell ref="A41:XFD47"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B18:B19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2472,12 +2513,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2486,12 +2527,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
